--- a/Quiz.Web.UI/Files/Template/SampleQuestionBank.xlsx
+++ b/Quiz.Web.UI/Files/Template/SampleQuestionBank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIGNESH SUNDAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\QuizApp\QuizApp\Quiz.Web.UI\Files\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Answer</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>A person crosses a 600 m long street in 5 minutes. What is his speed in km per hour?</t>
+  </si>
+  <si>
+    <t>QuestionMaster</t>
+  </si>
+  <si>
+    <t>I felt the wall of the tunnel shiver. The master alarm squealed through my earphones. Almost simultaneously, Jack yelled down to me that there was a warning light on. Fleeting but spectacular sights snapped into ans out of view, the snow, the shower of debris, the moon, looming close and big, the dazzling sunshine for once unfiltered by layers of air. The last twelve hours before re-entry were particular bone-chilling. During this period, I had to go up in to command module. Even after the fiery re-entry splashing down in 81o water in south pacific, we could still see our frosty breath inside the command module.</t>
+  </si>
+  <si>
+    <t>The word 'Command Module' used twice in the given passage indicates perhaps that it deals with</t>
+  </si>
+  <si>
+    <t>an alarming journey</t>
+  </si>
+  <si>
+    <t>a commanding situation</t>
+  </si>
+  <si>
+    <t>a journey into outer space</t>
+  </si>
+  <si>
+    <t>a frightful battle.</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -378,82 +402,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7.2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
